--- a/temp/favourites.xlsx
+++ b/temp/favourites.xlsx
@@ -498,17 +498,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Noah</t>
+          <t>de-DE-ChristophNeural</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noah</t>
+          <t>Christoph</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>English (US)</t>
+          <t>German</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>en-US</t>
+          <t>de-DE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,24 +528,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>polly</t>
+          <t>ms</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LogZgW_92qU-g1m9Ggp.mp3?generation=1568410881344476&amp;alt=media</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['news']</t>
-        </is>
-      </c>
+          <t>https://media.play.ht/voice-samples/de-DE-ChristophNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Noah - en-US - Male</t>
+          <t>de-DE-ChristophNeural - de-DE - Male</t>
         </is>
       </c>
     </row>
@@ -602,27 +600,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural</t>
+          <t>es-US-Neural2-A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Spanish (US)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neural</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>it-IT</t>
+          <t>es-US</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -632,32 +630,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>gc</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
+          <t>https://cloud.google.com/static/text-to-speech/docs/audio/es-US-Neural2-A.wav</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural - it-IT - Female</t>
+          <t>es-US-Neural2-A - es-US - Female</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bianca</t>
+          <t>it-IT-IsabellaNeural</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bianca</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Neural</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>polly</t>
+          <t>ms</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LxWkYcTnJR-p5XZO54L.mp3?generation=1577893118823990&amp;alt=media</t>
+          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -695,7 +695,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Bianca - it-IT - Female</t>
+          <t>it-IT-IsabellaNeural - it-IT - Female</t>
         </is>
       </c>
     </row>

--- a/temp/favourites.xlsx
+++ b/temp/favourites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,6 +699,216 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>it-IT-CataldoNeural</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cataldo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Italian (Italy)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>it-IT</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/voice-samples/it-IT-CataldoNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>it-IT-CataldoNeural - Cataldo - it-IT - Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoxiaoNeural</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xiaoxiao</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoyouNeural</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xiaoyou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>zh-CN-YunxiNeural</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yunxi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>zh-CN-YunxiNeural - Yunxi - zh-CN - Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/temp/favourites.xlsx
+++ b/temp/favourites.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>de-DE-ChristophNeural</t>
+          <t>de-DE-ConradNeural</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christoph</t>
+          <t>Conrad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -533,17 +533,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://media.play.ht/voice-samples/de-DE-ChristophNeural.mp3</t>
+          <t>https://media.play.ht/full_-MWZArdg2DdsN_pLGkNz.mp3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>de-DE-ChristophNeural - de-DE - Male</t>
+          <t>de-DE-ConradNeural - Conrad - de-DE - Male</t>
         </is>
       </c>
     </row>
@@ -652,17 +650,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural</t>
+          <t>fr-FR-YvesNeural</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>French</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -672,12 +670,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>it-IT</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -687,32 +685,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
+          <t>https://media.play.ht/voice-samples/fr-FR-YvesNeural.mp3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural - it-IT - Female</t>
+          <t>fr-FR-YvesNeural - Yves - fr-FR - Male</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>it-IT-CataldoNeural</t>
+          <t>it-IT-IsabellaNeural</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cataldo</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Italian (Italy)</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -737,34 +737,32 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://media.play.ht/voice-samples/it-IT-CataldoNeural.mp3</t>
+          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>it-IT-CataldoNeural - Cataldo - it-IT - Male</t>
+          <t>it-IT-IsabellaNeural - it-IT - Female</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoxiaoNeural</t>
+          <t>it-IT-CalimeroNeural</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Xiaoxiao</t>
+          <t>Calimero</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Italian (Italy)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -774,12 +772,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>zh-CN</t>
+          <t>it-IT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -789,36 +787,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
-        </is>
-      </c>
+          <t>https://media.play.ht/voice-samples/it-IT-CalimeroNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
+          <t>it-IT-CalimeroNeural - Calimero - it-IT - Male</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoyouNeural</t>
+          <t>it-IT-DiegoNeural</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Xiaoyou</t>
+          <t>Dieggo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -828,12 +824,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>zh-CN</t>
+          <t>it-IT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -843,7 +839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
+          <t>https://media.play.ht/full_-MWZJpS-l2vwiUBMY4Nw.mp3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -851,19 +847,19 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
+          <t>it-IT-DiegoNeural - Dieggo - it-IT - Male</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zh-CN-YunxiNeural</t>
+          <t>zh-CN-XiaoxiaoNeural</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yunxi</t>
+          <t>Xiaoxiao</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -883,7 +879,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -893,17 +889,121 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
+          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
+          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoyouNeural</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Xiaoyou</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>zh-CN-YunxiNeural</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yunxi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>zh-CN-YunxiNeural - Yunxi - zh-CN - Male</t>
         </is>

--- a/temp/favourites.xlsx
+++ b/temp/favourites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,6 +1009,106 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>zh-TW-HsiaoChenNeural</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HsiaoChen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chinese (TW)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>zh-TW</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWgnl0urXv5Ob4-pRus.mp3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>zh-TW-HsiaoChenNeural - HsiaoChen - zh-TW - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>zh-TW-YunJheNeural</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YunJhe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chinese (TW)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>zh-TW</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWgnqtZenYjF4U0tVlc.mp3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>zh-TW-YunJheNeural - YunJhe - zh-TW - Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/temp/favourites.xlsx
+++ b/temp/favourites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,17 +548,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spanish (US)</t>
+          <t>English (US)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>es-US</t>
+          <t>en-US</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LxWipo5_sYZqDHC0Tuq.mp3?generation=1577892670114310&amp;alt=media</t>
+          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LogXjRYDhRnXoWh1IPK.mp3?generation=1568410368931237&amp;alt=media</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -591,19 +591,19 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Isabella - es-US - Female</t>
+          <t>Victoria - Victoria - en-US - Female</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>es-US-Neural2-A</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camila</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Neural</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,64 +628,62 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gc</t>
+          <t>polly</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/static/text-to-speech/docs/audio/es-US-Neural2-A.wav</t>
+          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LxWipo5_sYZqDHC0Tuq.mp3?generation=1577892670114310&amp;alt=media</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>es-US-Neural2-A - es-US - Female</t>
+          <t>Isabella - es-US - Female</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fr-FR-YvesNeural</t>
+          <t>es-US-Neural2-A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Spanish (US)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Neural</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>es-US</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>gc</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://media.play.ht/voice-samples/fr-FR-YvesNeural.mp3</t>
+          <t>https://cloud.google.com/static/text-to-speech/docs/audio/es-US-Neural2-A.wav</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -695,24 +693,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>fr-FR-YvesNeural - Yves - fr-FR - Male</t>
+          <t>es-US-Neural2-A - es-US - Female</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural</t>
+          <t>fr-FR-YvesNeural</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>French</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -722,12 +720,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>it-IT</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -737,32 +735,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
+          <t>https://media.play.ht/voice-samples/fr-FR-YvesNeural.mp3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural - it-IT - Female</t>
+          <t>fr-FR-YvesNeural - Yves - fr-FR - Male</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>it-IT-CalimeroNeural</t>
+          <t>it-IT-IsabellaNeural</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Calimero</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Italian (Italy)</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -787,34 +787,32 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://media.play.ht/voice-samples/it-IT-CalimeroNeural.mp3</t>
+          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>it-IT-CalimeroNeural - Calimero - it-IT - Male</t>
+          <t>it-IT-IsabellaNeural - it-IT - Female</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>it-IT-DiegoNeural</t>
+          <t>it-IT-CalimeroNeural</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dieggo</t>
+          <t>Calimero</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Italian (Italy)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -839,32 +837,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZJpS-l2vwiUBMY4Nw.mp3</t>
+          <t>https://media.play.ht/voice-samples/it-IT-CalimeroNeural.mp3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>it-IT-DiegoNeural - Dieggo - it-IT - Male</t>
+          <t>it-IT-CalimeroNeural - Calimero - it-IT - Male</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoxiaoNeural</t>
+          <t>it-IT-DiegoNeural</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Xiaoxiao</t>
+          <t>Dieggo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>zh-CN</t>
+          <t>it-IT</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -889,31 +889,27 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
-        </is>
-      </c>
+          <t>https://media.play.ht/full_-MWZJpS-l2vwiUBMY4Nw.mp3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
+          <t>it-IT-DiegoNeural - Dieggo - it-IT - Male</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoyouNeural</t>
+          <t>zh-CN-XiaoxiaoNeural</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Xiaoyou</t>
+          <t>Xiaoxiao</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -943,27 +939,31 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
+          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zh-CN-YunxiNeural</t>
+          <t>zh-CN-XiaoyouNeural</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yunxi</t>
+          <t>Xiaoyou</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -993,36 +993,32 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
-        </is>
-      </c>
+          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>zh-CN-YunxiNeural - Yunxi - zh-CN - Male</t>
+          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zh-TW-HsiaoChenNeural</t>
+          <t>zh-CN-YunxiNeural</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HsiaoChen</t>
+          <t>Yunxi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chinese (TW)</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1032,12 +1028,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>zh-TW</t>
+          <t>zh-CN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1047,27 +1043,31 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWgnl0urXv5Ob4-pRus.mp3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>zh-TW-HsiaoChenNeural - HsiaoChen - zh-TW - Female</t>
+          <t>zh-CN-YunxiNeural - Yunxi - zh-CN - Male</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>zh-TW-YunJheNeural</t>
+          <t>zh-TW-HsiaoChenNeural</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>YunJhe</t>
+          <t>HsiaoChen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWgnqtZenYjF4U0tVlc.mp3</t>
+          <t>https://media.play.ht/full_-MWgnl0urXv5Ob4-pRus.mp3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1105,6 +1105,56 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
+          <t>zh-TW-HsiaoChenNeural - HsiaoChen - zh-TW - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>zh-TW-YunJheNeural</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YunJhe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chinese (TW)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>zh-TW</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWgnqtZenYjF4U0tVlc.mp3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>zh-TW-YunJheNeural - YunJhe - zh-TW - Male</t>
         </is>
       </c>

--- a/temp/favourites.xlsx
+++ b/temp/favourites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,17 +498,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>de-DE-ConradNeural</t>
+          <t>ar-EG-SalmaNeural</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conrad</t>
+          <t>Salma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Arabic (Egypt)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>de-DE</t>
+          <t>ar-EG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZArdg2DdsN_pLGkNz.mp3</t>
+          <t>https://media.play.ht/full_-MWYCcEzIJUhu--lWf6M.mp3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -541,24 +541,24 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>de-DE-ConradNeural - Conrad - de-DE - Male</t>
+          <t>ar-EG-SalmaNeural - Salma - ar-EG - Female</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>de-DE-ConradNeural</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Conrad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>English (US)</t>
+          <t>German</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -568,22 +568,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>en-US</t>
+          <t>de-DE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>polly</t>
+          <t>ms</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LogXjRYDhRnXoWh1IPK.mp3?generation=1568410368931237&amp;alt=media</t>
+          <t>https://media.play.ht/full_-MWZArdg2DdsN_pLGkNz.mp3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -591,24 +591,24 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Victoria - Victoria - en-US - Female</t>
+          <t>de-DE-ConradNeural - Conrad - de-DE - Male</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spanish (US)</t>
+          <t>English (US)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>es-US</t>
+          <t>en-US</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LxWipo5_sYZqDHC0Tuq.mp3?generation=1577892670114310&amp;alt=media</t>
+          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LogXjRYDhRnXoWh1IPK.mp3?generation=1568410368931237&amp;alt=media</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -641,19 +641,19 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Isabella - es-US - Female</t>
+          <t>Victoria - Victoria - en-US - Female</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>es-US-Neural2-A</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camila</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Neural</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -678,64 +678,62 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>gc</t>
+          <t>polly</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/static/text-to-speech/docs/audio/es-US-Neural2-A.wav</t>
+          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LxWipo5_sYZqDHC0Tuq.mp3?generation=1577892670114310&amp;alt=media</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>es-US-Neural2-A - es-US - Female</t>
+          <t>Isabella - es-US - Female</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fr-FR-YvesNeural</t>
+          <t>es-US-Neural2-A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Spanish (US)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Neural</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>es-US</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>gc</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://media.play.ht/voice-samples/fr-FR-YvesNeural.mp3</t>
+          <t>https://cloud.google.com/static/text-to-speech/docs/audio/es-US-Neural2-A.wav</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -745,24 +743,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>fr-FR-YvesNeural - Yves - fr-FR - Male</t>
+          <t>es-US-Neural2-A - es-US - Female</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural</t>
+          <t>fr-FR-YvesNeural</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>French</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -772,12 +770,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>it-IT</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -787,32 +785,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
+          <t>https://media.play.ht/voice-samples/fr-FR-YvesNeural.mp3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural - it-IT - Female</t>
+          <t>fr-FR-YvesNeural - Yves - fr-FR - Male</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>it-IT-CalimeroNeural</t>
+          <t>it-IT-IsabellaNeural</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Calimero</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Italian (Italy)</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -837,34 +837,32 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://media.play.ht/voice-samples/it-IT-CalimeroNeural.mp3</t>
+          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>it-IT-CalimeroNeural - Calimero - it-IT - Male</t>
+          <t>it-IT-IsabellaNeural - it-IT - Female</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>it-IT-DiegoNeural</t>
+          <t>it-IT-CalimeroNeural</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dieggo</t>
+          <t>Calimero</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Italian (Italy)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -889,32 +887,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZJpS-l2vwiUBMY4Nw.mp3</t>
+          <t>https://media.play.ht/voice-samples/it-IT-CalimeroNeural.mp3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>it-IT-DiegoNeural - Dieggo - it-IT - Male</t>
+          <t>it-IT-CalimeroNeural - Calimero - it-IT - Male</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoxiaoNeural</t>
+          <t>it-IT-DiegoNeural</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Xiaoxiao</t>
+          <t>Dieggo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>zh-CN</t>
+          <t>it-IT</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -939,31 +939,27 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
-        </is>
-      </c>
+          <t>https://media.play.ht/full_-MWZJpS-l2vwiUBMY4Nw.mp3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
+          <t>it-IT-DiegoNeural - Dieggo - it-IT - Male</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoyouNeural</t>
+          <t>zh-CN-XiaoxiaoNeural</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Xiaoyou</t>
+          <t>Xiaoxiao</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -993,27 +989,31 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
+          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zh-CN-YunxiNeural</t>
+          <t>zh-CN-XiaoyouNeural</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yunxi</t>
+          <t>Xiaoyou</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1043,36 +1043,32 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
-        </is>
-      </c>
+          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>zh-CN-YunxiNeural - Yunxi - zh-CN - Male</t>
+          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>zh-TW-HsiaoChenNeural</t>
+          <t>zh-CN-YunxiNeural</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HsiaoChen</t>
+          <t>Yunxi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chinese (TW)</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1082,12 +1078,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>zh-TW</t>
+          <t>zh-CN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1097,27 +1093,31 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWgnl0urXv5Ob4-pRus.mp3</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>zh-TW-HsiaoChenNeural - HsiaoChen - zh-TW - Female</t>
+          <t>zh-CN-YunxiNeural - Yunxi - zh-CN - Male</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zh-TW-YunJheNeural</t>
+          <t>zh-TW-HsiaoChenNeural</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>YunJhe</t>
+          <t>HsiaoChen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWgnqtZenYjF4U0tVlc.mp3</t>
+          <t>https://media.play.ht/full_-MWgnl0urXv5Ob4-pRus.mp3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1155,6 +1155,56 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
+          <t>zh-TW-HsiaoChenNeural - HsiaoChen - zh-TW - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>zh-TW-YunJheNeural</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>YunJhe</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chinese (TW)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>zh-TW</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWgnqtZenYjF4U0tVlc.mp3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>zh-TW-YunJheNeural - YunJhe - zh-TW - Male</t>
         </is>
       </c>

--- a/temp/favourites.xlsx
+++ b/temp/favourites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,17 +548,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>de-DE-ConradNeural</t>
+          <t>cs-CZ-VlastaNeural</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conrad</t>
+          <t>Vlasta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>de-DE</t>
+          <t>cs-CZ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZArdg2DdsN_pLGkNz.mp3</t>
+          <t>https://media.play.ht/full_-MWZAGo0Vhk1yArj45Y5.mp3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -591,24 +591,24 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>de-DE-ConradNeural - Conrad - de-DE - Male</t>
+          <t>cs-CZ-VlastaNeural - Vlasta - cs-CZ - Female</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>VickiNeural</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Vicki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>English (US)</t>
+          <t>German</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>en-US</t>
+          <t>de-DE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LogXjRYDhRnXoWh1IPK.mp3?generation=1568410368931237&amp;alt=media</t>
+          <t>https://media.play.ht/full_-Mh7qwOmypiqiIUn7jK5.mp3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -641,24 +641,24 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Victoria - Victoria - en-US - Female</t>
+          <t>VickiNeural - Vicki - de-DE - Female</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>de-DE-ConradNeural</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Conrad</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Spanish (US)</t>
+          <t>German</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>es-US</t>
+          <t>de-DE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>polly</t>
+          <t>ms</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LxWipo5_sYZqDHC0Tuq.mp3?generation=1577892670114310&amp;alt=media</t>
+          <t>https://media.play.ht/full_-MWZArdg2DdsN_pLGkNz.mp3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -691,76 +691,74 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Isabella - es-US - Female</t>
+          <t>de-DE-ConradNeural - Conrad - de-DE - Male</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>es-US-Neural2-A</t>
+          <t>de-DE-ConradNeural</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camila</t>
+          <t>Conrad</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spanish (US)</t>
+          <t>German</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Neural</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>es-US</t>
+          <t>de-DE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gc</t>
+          <t>ms</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/static/text-to-speech/docs/audio/es-US-Neural2-A.wav</t>
+          <t>https://media.play.ht/full_-MWZArdg2DdsN_pLGkNz.mp3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>es-US-Neural2-A - es-US - Female</t>
+          <t>de-DE-ConradNeural - Conrad - de-DE - Male</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fr-FR-YvesNeural</t>
+          <t>de-DE-AmalaNeural</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Amala</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>German</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -770,12 +768,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>de-DE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -785,7 +783,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://media.play.ht/voice-samples/fr-FR-YvesNeural.mp3</t>
+          <t>https://media.play.ht/voice-samples/de-DE-AmalaNeural.mp3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -795,24 +793,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>fr-FR-YvesNeural - Yves - fr-FR - Male</t>
+          <t>de-DE-AmalaNeural - Amala - de-DE - Female</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural</t>
+          <t>el-GR-AthinaNeural</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Athina</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -822,7 +820,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>it-IT</t>
+          <t>el-GR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -837,7 +835,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
+          <t>https://media.play.ht/full_-MWZB24uSTWQxFJ-HGrh.mp3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -845,24 +843,24 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>it-IT-IsabellaNeural - it-IT - Female</t>
+          <t>el-GR-AthinaNeural - Athina - el-GR - Female</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>it-IT-CalimeroNeural</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Calimero</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Italian (Italy)</t>
+          <t>English (US)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -872,49 +870,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>it-IT</t>
+          <t>en-US</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>polly</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://media.play.ht/voice-samples/it-IT-CalimeroNeural.mp3</t>
+          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LogXjRYDhRnXoWh1IPK.mp3?generation=1568410368931237&amp;alt=media</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>it-IT-CalimeroNeural - Calimero - it-IT - Male</t>
+          <t>Victoria - Victoria - en-US - Female</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>it-IT-DiegoNeural</t>
+          <t>es-CL-CatalinaNeural</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dieggo</t>
+          <t>Catalina</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Spanish (Chile)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -924,12 +920,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>it-IT</t>
+          <t>es-CL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -939,7 +935,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWZJpS-l2vwiUBMY4Nw.mp3</t>
+          <t>https://media.play.ht/voice-samples/es-CL-CatalinaNeural.mp3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -947,24 +943,24 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>it-IT-DiegoNeural - Dieggo - it-IT - Male</t>
+          <t>es-CL-CatalinaNeural - Catalina - es-CL - Female</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoxiaoNeural</t>
+          <t>es-ES-ElviraNeural</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Xiaoxiao</t>
+          <t>Elvira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -974,7 +970,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>zh-CN</t>
+          <t>es-ES</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -989,36 +985,32 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
-        </is>
-      </c>
+          <t>https://media.play.ht/full_-MWYF5hoHdE0N0ww1jgt.mp3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
+          <t>es-ES-ElviraNeural - Elvira - es-ES - Female</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoyouNeural</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Xiaoyou</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Spanish (US)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1028,7 +1020,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>zh-CN</t>
+          <t>es-US</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1038,12 +1030,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>polly</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
+          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LxWipo5_sYZqDHC0Tuq.mp3?generation=1577892670114310&amp;alt=media</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1051,78 +1043,76 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
+          <t>Isabella - es-US - Female</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>zh-CN-YunxiNeural</t>
+          <t>es-US-Neural2-A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yunxi</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Spanish (US)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Neural</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>zh-CN</t>
+          <t>es-US</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>gc</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
-        </is>
-      </c>
+          <t>https://cloud.google.com/static/text-to-speech/docs/audio/es-US-Neural2-A.wav</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>zh-CN-YunxiNeural - Yunxi - zh-CN - Male</t>
+          <t>es-US-Neural2-A - es-US - Female</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zh-TW-HsiaoChenNeural</t>
+          <t>fr-FR-YvesNeural</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HsiaoChen</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chinese (TW)</t>
+          <t>French</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1132,12 +1122,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>zh-TW</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1147,32 +1137,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWgnl0urXv5Ob4-pRus.mp3</t>
+          <t>https://media.play.ht/voice-samples/fr-FR-YvesNeural.mp3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>zh-TW-HsiaoChenNeural - HsiaoChen - zh-TW - Female</t>
+          <t>fr-FR-YvesNeural - Yves - fr-FR - Male</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zh-TW-YunJheNeural</t>
+          <t>fr-FR-YvetteNeural</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>YunJhe</t>
+          <t>Yvette</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chinese (TW)</t>
+          <t>French</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1182,12 +1174,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>zh-TW</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1197,13 +1189,1385 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://media.play.ht/full_-MWgnqtZenYjF4U0tVlc.mp3</t>
+          <t>https://media.play.ht/voice-samples/fr-FR-YvetteNeural.mp3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
       <c r="L15" t="inlineStr">
+        <is>
+          <t>fr-FR-YvetteNeural - Yvette - fr-FR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LeaNeural</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Léa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>fr-FR</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>polly</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/voice-samples/LeaNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>LeaNeural - Léa - fr-FR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hu-HU-NoemiNeural</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Noemi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hungarian</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>hu-HU</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWZJJHX-z4kSKuoaRBY.mp3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>hu-HU-NoemiNeural - Noemi - hu-HU - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>it-IT-DiegoNeural</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dieggo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>it-IT</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWZJpS-l2vwiUBMY4Nw.mp3</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>it-IT-DiegoNeural - Dieggo - it-IT - Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>it-IT-CalimeroNeural</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Calimero</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Italian (Italy)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>it-IT</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/voice-samples/it-IT-CalimeroNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>it-IT-CalimeroNeural - Calimero - it-IT - Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>it-IT-IsabellaNeural</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>it-IT</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWZJiBPuoNQu2uQn1nZ.mp3</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>it-IT-IsabellaNeural - it-IT - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ko-KR-InJoonNeural</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>InJoon</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Korean</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWbmtYewiUaYwLcwnuy.mp3</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ko-KR-InJoonNeural - InJoon - ko-KR - Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ko-KR-SunHiNeural</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SunHi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Korean</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYa62KdZj9z8ZJRrr9.mp3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ko-KR-SunHiNeural - SunHi - ko-KR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>nl-NL-ColetteNeural</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Colette</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dutch</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYc8akOw_Upfd4kfcH.mp3</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>nl-NL-ColetteNeural - Colette - nl-NL - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>nl-NL-FennaNeural</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fenna</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Dutch</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWc7rP1gSLa6wjgRqz4.mp3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>nl-NL-FennaNeural - Fenna - nl-NL - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pl-PL-ZofiaNeural</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Zofia</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Polish</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>pl-PL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYcTk0JTmt7RGitIFj.mp3</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>pl-PL-ZofiaNeural - Zofia - pl-PL - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>pl-PL-AgnieszkaNeural</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Agnieszka</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Polish</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>pl-PL</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWglikDWElFnuFU2dkA.mp3</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>pl-PL-AgnieszkaNeural - Agnieszka - pl-PL - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>pt-BR-HumbertoNeural</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Humberto</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portuguese (Brazil)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/voice-samples/pt-BR-HumbertoNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>pt-BR-HumbertoNeural - Humberto - pt-BR - Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>pt-BR-YaraNeural</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yara</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portuguese (Brazil)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/voice-samples/pt-BR-YaraNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>pt-BR-YaraNeural - Yara - pt-BR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>pt-BR_IsabelaV3Voice</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Carolina</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portuguese (BR)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>watson</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.googleapis.com/download/storage/v1/b/play-68705.appspot.com/o/full_-LsXkGmqlZKffNV1DVRD.mp3?generation=1572541156847471&amp;alt=media</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>pt-BR_IsabelaV3Voice - Carolina - pt-BR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>pt-BR-ManuelaNeural</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Manuela</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portuguese (Brazil)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/voice-samples/pt-BR-ManuelaNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>pt-BR-ManuelaNeural - Manuela - pt-BR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pt-BR-BrendaNeural</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portuguese (Brazil)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/voice-samples/pt-BR-BrendaNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>pt-BR-BrendaNeural - Brenda - pt-BR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pt-BR-BrendaNeural</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portuguese (Brazil)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/voice-samples/pt-BR-BrendaNeural.mp3</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>pt-BR-BrendaNeural - Brenda - pt-BR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pt-PT-RaquelNeural</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Raquel</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>pt-PT</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWglvx2PLLlQQbzk5Mc.mp3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>pt-PT-RaquelNeural - Raquel - pt-PT - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>pt-PT-FernandaNeural</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fernanda</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>pt-PT</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYd1vgjB8Jdq5YmRvI.mp3</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>pt-PT-FernandaNeural - Fernanda - pt-PT - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ro-RO-AlinaNeural</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Alina</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Romanian</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ro-RO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWbnaQJ6yboljjku1CD.mp3</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ro-RO-AlinaNeural - Alina - ro-RO - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Filiz</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Filiz</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Turkish</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>polly</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://firebasestorage.googleapis.com/v0/b/play-68705.appspot.com/o/samples%2FFiliz.mp3?alt=media&amp;token=b949ca8f-fd70-4acf-a55f-2caff0f24ebc</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Filiz - Filiz - tr-TR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>tr-TR-EmelNeural</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Emel</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Turkish</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYcuZQREfYIQNW5eVF.mp3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>tr-TR-EmelNeural - Emel - tr-TR - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoxiaoNeural</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Xiaoxiao</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYop0bpUqReHyw353u.mp3</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['newscast', 'customerservice', 'assistant', 'chat', 'calm', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'affectionate', 'gentle', 'lyrical']</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoxiaoNeural - Xiaoxiao - zh-CN - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoyouNeural</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Xiaoyou</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWYow2lHJ7f1cuvr-ME.mp3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>zh-CN-XiaoyouNeural - Xiaoyou - zh-CN - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>zh-CN-YunxiNeural</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yunxi</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWcT2T264z196lhpZ1b.mp3</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['assistant', 'cheerful', 'sad', 'angry', 'fearful', 'disgruntled', 'serious', 'depressed', 'embarrassed']</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>zh-CN-YunxiNeural - Yunxi - zh-CN - Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>zh-TW-HsiaoChenNeural</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HsiaoChen</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chinese (TW)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>zh-TW</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWgnl0urXv5Ob4-pRus.mp3</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>zh-TW-HsiaoChenNeural - HsiaoChen - zh-TW - Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>zh-TW-YunJheNeural</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>YunJhe</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Chinese (TW)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Neural</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>zh-TW</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://media.play.ht/full_-MWgnqtZenYjF4U0tVlc.mp3</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
         <is>
           <t>zh-TW-YunJheNeural - YunJhe - zh-TW - Male</t>
         </is>
